--- a/figli_excel.xlsx
+++ b/figli_excel.xlsx
@@ -16,20 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>email</t>
+    <t>lastName</t>
   </si>
   <si>
     <t>firstName</t>
   </si>
   <si>
-    <t>lastName</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -60,15 +57,12 @@
     <t>child</t>
   </si>
   <si>
-    <t>robertaagnello@virgilio.it</t>
+    <t>AGNELLO</t>
   </si>
   <si>
     <t>ROBERTA</t>
   </si>
   <si>
-    <t>AGNELLO</t>
-  </si>
-  <si>
     <t>MATTIA</t>
   </si>
   <si>
@@ -84,15 +78,12 @@
     <t>MER</t>
   </si>
   <si>
-    <t>graziaanaclerio88@gmail.com</t>
+    <t>ANACLERIO</t>
   </si>
   <si>
     <t>GRAZIA</t>
   </si>
   <si>
-    <t>ANACLERIO</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLAUDIO MARIA</t>
   </si>
   <si>
@@ -108,27 +99,21 @@
     <t>SAB</t>
   </si>
   <si>
-    <t>rossella.attolini@gmail.com</t>
+    <t>ATTOLINI</t>
   </si>
   <si>
     <t>ROSSELLA</t>
   </si>
   <si>
-    <t>ATTOLINI</t>
-  </si>
-  <si>
     <t>ROMEO</t>
   </si>
   <si>
-    <t>biatia@libero.it</t>
+    <t>BOSCAINO</t>
   </si>
   <si>
     <t>VALENTINA</t>
   </si>
   <si>
-    <t>BOSCAINO</t>
-  </si>
-  <si>
     <t>TEO</t>
   </si>
   <si>
@@ -141,15 +126,12 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>boschetti.lucia@gmail.com</t>
+    <t>BOSCHETTI</t>
   </si>
   <si>
     <t>LUCIA</t>
   </si>
   <si>
-    <t>BOSCHETTI</t>
-  </si>
-  <si>
     <t>BIANCA</t>
   </si>
   <si>
@@ -162,102 +144,78 @@
     <t>LUN</t>
   </si>
   <si>
-    <t>miriam.capoccia@alice.it</t>
+    <t>CAPOCCIA</t>
   </si>
   <si>
     <t>MIRIAM</t>
   </si>
   <si>
-    <t>CAPOCCIA</t>
-  </si>
-  <si>
     <t>EMMA</t>
   </si>
   <si>
-    <t>mariacaringe@gmail.com</t>
+    <t>CARINGELLA</t>
   </si>
   <si>
     <t>MARIA</t>
   </si>
   <si>
-    <t>CARINGELLA</t>
-  </si>
-  <si>
     <t>ANDREA</t>
   </si>
   <si>
     <t xml:space="preserve">2 a</t>
   </si>
   <si>
-    <t>lcasalino87@gmail.com</t>
+    <t>CASALINO</t>
   </si>
   <si>
     <t>LAURA</t>
   </si>
   <si>
-    <t>CASALINO</t>
-  </si>
-  <si>
     <t>GLORIA</t>
   </si>
   <si>
     <t xml:space="preserve">2,5 a</t>
   </si>
   <si>
-    <t>angelachiaracecere@gmail.com</t>
+    <t>CECERE</t>
   </si>
   <si>
     <t xml:space="preserve">ANGELA CHIARA</t>
   </si>
   <si>
-    <t>CECERE</t>
-  </si>
-  <si>
     <t>ENEA</t>
   </si>
   <si>
-    <t>gaiaciafardini@libero.it</t>
+    <t>CIAFARDINI</t>
   </si>
   <si>
     <t>GAIA</t>
   </si>
   <si>
-    <t>CIAFARDINI</t>
-  </si>
-  <si>
-    <t>giusyciraci@libero.it</t>
+    <t>CIRACI'</t>
   </si>
   <si>
     <t>GIUSY</t>
   </si>
   <si>
-    <t>CIRACI'</t>
-  </si>
-  <si>
     <t>AMBRA</t>
   </si>
   <si>
     <t xml:space="preserve">8 m</t>
   </si>
   <si>
-    <t>adriana.alice.cat@gmail.com</t>
+    <t>CIVITANO</t>
   </si>
   <si>
     <t>ADRIANA</t>
   </si>
   <si>
-    <t>CIVITANO</t>
-  </si>
-  <si>
     <t>GABRIELE</t>
   </si>
   <si>
     <t>GIO</t>
   </si>
   <si>
-    <t>robertacorliano@yahoo.it</t>
-  </si>
-  <si>
     <t>CORLIANO'</t>
   </si>
   <si>
@@ -267,72 +225,54 @@
     <t xml:space="preserve">18 m</t>
   </si>
   <si>
-    <t>dolcique@gmail.com</t>
+    <t>DAMMACCO</t>
   </si>
   <si>
     <t>ELENA</t>
   </si>
   <si>
-    <t>DAMMACCO</t>
-  </si>
-  <si>
     <t>DIEGO</t>
   </si>
   <si>
-    <t>dibariilaria@libero.it</t>
+    <t xml:space="preserve">DI BARI</t>
   </si>
   <si>
     <t xml:space="preserve">CARMEN ILARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">DI BARI</t>
-  </si>
-  <si>
     <t>MATTEO</t>
   </si>
   <si>
     <t>ADF</t>
   </si>
   <si>
-    <t>digreg.chiara@gmail.com</t>
+    <t xml:space="preserve">DI GREGORIO</t>
   </si>
   <si>
     <t>CHIARA</t>
   </si>
   <si>
-    <t xml:space="preserve">DI GREGORIO</t>
-  </si>
-  <si>
-    <t>diana.giusy@email.it</t>
-  </si>
-  <si>
     <t>DIANA</t>
   </si>
   <si>
     <t xml:space="preserve">3 a </t>
   </si>
   <si>
-    <t>paolaesp@gmail.com</t>
+    <t>ESPOSITO</t>
   </si>
   <si>
     <t>PAOLA</t>
   </si>
   <si>
-    <t>ESPOSITO</t>
-  </si>
-  <si>
     <t>PIETRO</t>
   </si>
   <si>
-    <t>ettorre25@gmail.com</t>
+    <t>ETTORRE</t>
   </si>
   <si>
     <t>CATERINA</t>
   </si>
   <si>
-    <t>ETTORRE</t>
-  </si>
-  <si>
     <t>NICOLO'</t>
   </si>
   <si>
@@ -345,204 +285,150 @@
     <t>MAR</t>
   </si>
   <si>
-    <t>francesca.filoni@outlook.it</t>
+    <t>FILONI</t>
   </si>
   <si>
     <t>FRANCESCA</t>
   </si>
   <si>
-    <t>FILONI</t>
-  </si>
-  <si>
     <t>GIORGIA</t>
   </si>
   <si>
-    <t>marina89f@gmail.com</t>
-  </si>
-  <si>
     <t>FIORINO</t>
   </si>
   <si>
     <t>ADRIANO</t>
   </si>
   <si>
-    <t>gentileantonio@yahoo.it</t>
+    <t>GENTILE</t>
   </si>
   <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>GENTILE</t>
-  </si>
-  <si>
     <t>GIULIA</t>
   </si>
   <si>
-    <t>sgentile3916@gmail.com</t>
-  </si>
-  <si>
     <t>SIMONA</t>
   </si>
   <si>
     <t>SERGIO</t>
   </si>
   <si>
-    <t>isabellagernone2000@outlook.it</t>
+    <t>GERNONE</t>
   </si>
   <si>
     <t>ISABELLA</t>
   </si>
   <si>
-    <t>GERNONE</t>
-  </si>
-  <si>
     <t>CELINE</t>
   </si>
   <si>
-    <t>lovregliogio@gmail.com</t>
+    <t>LOVREGLIO</t>
   </si>
   <si>
     <t>GIOVANNA</t>
   </si>
   <si>
-    <t>LOVREGLIO</t>
-  </si>
-  <si>
     <t>GRACE</t>
   </si>
   <si>
     <t>TOR</t>
   </si>
   <si>
-    <t>mariannamastrangelo153@hotmail.com</t>
+    <t>MASTRANGELO</t>
   </si>
   <si>
     <t>MARIANNA</t>
   </si>
   <si>
-    <t>MASTRANGELO</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 a</t>
   </si>
   <si>
-    <t>francesco.maurelli@hotmail.it</t>
+    <t>MAURELLI</t>
   </si>
   <si>
     <t>FRANCESCO</t>
   </si>
   <si>
-    <t>MAURELLI</t>
-  </si>
-  <si>
-    <t>leomiolli90@gmail.com</t>
+    <t>MIOLLI</t>
   </si>
   <si>
     <t>LEONARDO</t>
   </si>
   <si>
-    <t>MIOLLI</t>
-  </si>
-  <si>
     <t>CHRISTIAN</t>
   </si>
   <si>
-    <t>crescenza.pasciolla@gmail.com</t>
+    <t>PASCIOLLA</t>
   </si>
   <si>
     <t>CRESCENZA</t>
   </si>
   <si>
-    <t>PASCIOLLA</t>
-  </si>
-  <si>
     <t>EMANUELE</t>
   </si>
   <si>
-    <t>emanuelapraino@yahoo.it</t>
+    <t>PRAINO</t>
   </si>
   <si>
     <t>EMANUELA</t>
   </si>
   <si>
-    <t>PRAINO</t>
-  </si>
-  <si>
     <t>MARTINA</t>
   </si>
   <si>
-    <t>lauraricciardi.lr@gmail.com</t>
-  </si>
-  <si>
     <t>RICCIARDI</t>
   </si>
   <si>
     <t>LARA</t>
   </si>
   <si>
-    <t>marysalatino@gmail.com</t>
+    <t>SALATINO</t>
   </si>
   <si>
     <t>MARY</t>
   </si>
   <si>
-    <t>SALATINO</t>
-  </si>
-  <si>
     <t>FEDERICO</t>
   </si>
   <si>
-    <t>luciana.sammarco@libero.it</t>
+    <t>SAMMARCO</t>
   </si>
   <si>
     <t>LUCIANA</t>
   </si>
   <si>
-    <t>SAMMARCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,5 a</t>
   </si>
   <si>
-    <t>silvia.sansonno@unifg.it</t>
+    <t>SANSONNO</t>
   </si>
   <si>
     <t>SILVIA</t>
   </si>
   <si>
-    <t>SANSONNO</t>
-  </si>
-  <si>
     <t xml:space="preserve">4,5 a</t>
   </si>
   <si>
-    <t>marinaschiavoni1987@gmail.com</t>
+    <t>SCHIAVONI</t>
   </si>
   <si>
     <t>MARINA</t>
   </si>
   <si>
-    <t>SCHIAVONI</t>
-  </si>
-  <si>
     <t>MATILDE</t>
   </si>
   <si>
-    <t>elsaschiro89@hotmail.it</t>
+    <t>SCHIRONE</t>
   </si>
   <si>
     <t>ELSA</t>
   </si>
   <si>
-    <t>SCHIRONE</t>
-  </si>
-  <si>
     <t>SOFIA</t>
   </si>
   <si>
-    <t>mariarosaria.serino@gmail.com</t>
-  </si>
-  <si>
     <t>SERINO</t>
   </si>
   <si>
@@ -552,48 +438,33 @@
     <t>institutional</t>
   </si>
   <si>
-    <t>amministrazione@cooperativasoleluna.it</t>
-  </si>
-  <si>
     <t xml:space="preserve">SOLELUNA SOC.COOP.</t>
   </si>
   <si>
-    <t>mmsteelsrl@gmail.com</t>
-  </si>
-  <si>
     <t>TISCI</t>
   </si>
   <si>
-    <t>zuly93@msn.com</t>
+    <t>MASELLI</t>
   </si>
   <si>
     <t xml:space="preserve">MARIA ZULEIKA</t>
   </si>
   <si>
-    <t>MASELLI</t>
-  </si>
-  <si>
     <t>RAFFAELE</t>
   </si>
   <si>
-    <t>solanch.bonita@gmail.com</t>
+    <t xml:space="preserve">CASTRO RIVERA</t>
   </si>
   <si>
     <t>SOLANCH</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTRO RIVERA</t>
-  </si>
-  <si>
-    <t>erikapaiano@libero.it</t>
+    <t>PAIANO</t>
   </si>
   <si>
     <t>ERIKA</t>
   </si>
   <si>
-    <t>PAIANO</t>
-  </si>
-  <si>
     <t>GIOELE</t>
   </si>
   <si>
@@ -603,24 +474,18 @@
     <t>CON</t>
   </si>
   <si>
-    <t>graziana.cicorella@libero.it</t>
+    <t>CICORELLA</t>
   </si>
   <si>
     <t>GRAZIANA</t>
   </si>
   <si>
-    <t>CICORELLA</t>
-  </si>
-  <si>
     <t>VITTORIA</t>
   </si>
   <si>
     <t xml:space="preserve">30 m</t>
   </si>
   <si>
-    <t>cate-achille@hotmail.it</t>
-  </si>
-  <si>
     <t>ACHILLE</t>
   </si>
   <si>
@@ -630,45 +495,33 @@
     <t xml:space="preserve">12 m</t>
   </si>
   <si>
-    <t>unaecentomila@libero.it</t>
+    <t>LOCAPUTO</t>
   </si>
   <si>
     <t>ANTONELLA</t>
   </si>
   <si>
-    <t>LOCAPUTO</t>
-  </si>
-  <si>
     <t>EDOARDO</t>
   </si>
   <si>
     <t xml:space="preserve">20 m</t>
   </si>
   <si>
-    <t>ylenia_m86@yahoo.it</t>
+    <t>MORTARA</t>
   </si>
   <si>
     <t xml:space="preserve">YLENIA ALESSIA</t>
   </si>
   <si>
-    <t>MORTARA</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADF LUN</t>
   </si>
   <si>
-    <t>alessandro.dipierro@gmail.com</t>
+    <t xml:space="preserve">DI PIERRO</t>
   </si>
   <si>
     <t>ALESSANDRO</t>
   </si>
   <si>
-    <t xml:space="preserve">DI PIERRO</t>
-  </si>
-  <si>
-    <t>rossella.tursi@gmail.com</t>
-  </si>
-  <si>
     <t>TURSI</t>
   </si>
   <si>
@@ -678,37 +531,34 @@
     <t>adult</t>
   </si>
   <si>
-    <t>piero.tavani@gmail.com</t>
+    <t>TAVANI</t>
   </si>
   <si>
     <t>PIERO</t>
   </si>
   <si>
-    <t>TAVANI</t>
-  </si>
-  <si>
     <t xml:space="preserve">100 a</t>
   </si>
   <si>
+    <t>GUARDAVACCARO</t>
+  </si>
+  <si>
     <t>GIOVANNI</t>
   </si>
   <si>
-    <t>GUARDAVACCARO</t>
+    <t>ZAMBETTA</t>
   </si>
   <si>
     <t>ROBERTO</t>
   </si>
   <si>
-    <t>ZAMBETTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHIARA STELLA</t>
   </si>
   <si>
+    <t>NICASSIO</t>
+  </si>
+  <si>
     <t>FLORIANA</t>
-  </si>
-  <si>
-    <t>NICASSIO</t>
   </si>
   <si>
     <t>NUNZIA</t>
@@ -721,15 +571,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="12.000000"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -742,12 +587,6 @@
     <font>
       <sz val="11.000000"/>
       <color theme="1" tint="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
-      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -813,12 +652,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
@@ -828,44 +664,20 @@
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -876,19 +688,7 @@
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1460,2184 +1260,2018 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="13.625"/>
-    <col customWidth="1" min="2" max="2" style="2" width="22.875"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="10.25390625"/>
+    <col customWidth="1" min="2" max="2" width="10.25390625"/>
     <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="14.375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="19.5"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="19.00390625"/>
-    <col min="6" max="6" style="1" width="9.00390625"/>
-    <col min="7" max="7" width="9.00390625"/>
-    <col bestFit="1" min="8" max="8" style="3" width="10.125"/>
-    <col bestFit="1" min="9" max="9" style="1" width="5.50390625"/>
-    <col min="10" max="10" style="1" width="9.00390625"/>
-    <col bestFit="1" min="11" max="11" style="4" width="10.125"/>
-    <col bestFit="1" min="12" max="12" style="1" width="5.50390625"/>
-    <col min="13" max="13" style="1" width="9.00390625"/>
-    <col bestFit="1" min="14" max="14" style="4" width="10.125"/>
-    <col bestFit="1" min="15" max="15" style="1" width="7.75390625"/>
-    <col min="16" max="16384" style="1" width="9.00390625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="19.00390625"/>
+    <col min="5" max="5" style="1" width="9.00390625"/>
+    <col min="6" max="6" width="9.00390625"/>
+    <col bestFit="1" min="7" max="7" style="2" width="10.125"/>
+    <col bestFit="1" min="8" max="8" style="1" width="5.50390625"/>
+    <col min="9" max="9" style="1" width="9.00390625"/>
+    <col bestFit="1" min="10" max="10" style="3" width="10.125"/>
+    <col bestFit="1" min="11" max="11" style="1" width="5.50390625"/>
+    <col min="12" max="12" style="1" width="9.00390625"/>
+    <col bestFit="1" min="13" max="13" style="3" width="10.125"/>
+    <col bestFit="1" min="14" max="14" style="1" width="7.75390625"/>
+    <col min="15" max="16384" style="1" width="9.00390625"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>9</v>
+      <c r="O1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
     </row>
     <row r="3" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="6">
+        <v>45973</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6">
+        <v>45983</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="11">
-        <v>45973</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12">
-        <v>45983</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="10"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="11">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6">
         <v>45820</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6">
         <v>45933</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="10"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>66</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="11">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6">
         <v>45973</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="12">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6">
         <v>45983</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="10"/>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="11">
+        <v>24</v>
+      </c>
+      <c r="G16" s="6">
         <v>45992</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="12">
+      <c r="M16" s="6">
         <v>46006</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>47</v>
+      <c r="N16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>92</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="10"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" s="14" customFormat="1">
+    </row>
+    <row r="18" s="7" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="11">
+        <v>24</v>
+      </c>
+      <c r="G19" s="6">
         <v>45866</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="12">
+        <v>41</v>
+      </c>
+      <c r="J19" s="6">
         <v>45918</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="K19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="6">
         <v>45982</v>
       </c>
-      <c r="O19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>40</v>
+      <c r="N19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="11">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="6">
         <v>45951</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
     </row>
     <row r="21" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="11">
+        <v>24</v>
+      </c>
+      <c r="G21" s="6">
         <v>45992</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="12">
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="6">
         <v>46006</v>
       </c>
-      <c r="O21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>47</v>
+      <c r="N21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="11">
+        <v>24</v>
+      </c>
+      <c r="G22" s="6">
         <v>45992</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="12">
+      <c r="M22" s="6">
         <v>46006</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>47</v>
+      <c r="N22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>116</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="11">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6">
         <v>45992</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="12">
+      <c r="M23" s="6">
         <v>46006</v>
       </c>
-      <c r="O23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>47</v>
+      <c r="N23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="11">
+        <v>24</v>
+      </c>
+      <c r="G24" s="6">
         <v>45866</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="12">
+        <v>41</v>
+      </c>
+      <c r="J24" s="6">
         <v>45918</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N24" s="12">
+      <c r="K24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="6">
         <v>45982</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>40</v>
+      <c r="N24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="4"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>136</v>
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="4"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="12">
+      <c r="J31" s="6">
         <v>45915</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="12">
+      <c r="K31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="6">
         <v>46006</v>
       </c>
-      <c r="O31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>47</v>
+      <c r="N31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="11">
+        <v>24</v>
+      </c>
+      <c r="G32" s="6">
         <v>45903</v>
       </c>
+      <c r="H32" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="I32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="12">
+        <v>88</v>
+      </c>
+      <c r="J32" s="6">
         <v>45933</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="10"/>
+      <c r="K32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
       <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>154</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>158</v>
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="10"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="4"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="4"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>166</v>
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="11">
+        <v>24</v>
+      </c>
+      <c r="G36" s="6">
         <v>45973</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="12">
+        <v>19</v>
+      </c>
+      <c r="J36" s="6">
         <v>45978</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N36" s="12">
+      <c r="K36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="6">
         <v>46006</v>
       </c>
-      <c r="O36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>47</v>
+      <c r="N36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
       <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>174</v>
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="10"/>
+      <c r="I38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
+        <v>139</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="4"/>
-      <c r="P39" s="1"/>
+      <c r="M39" s="3"/>
+      <c r="O39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="4"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="16.5">
       <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>182</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="4"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="16.5">
       <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>182</v>
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K42" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="4"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="16.5">
       <c r="A43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>186</v>
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="16.5">
       <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>189</v>
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I44" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="16.5">
       <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>195</v>
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I45" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="4"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="16.5">
       <c r="A46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I46" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" s="21" customFormat="1" ht="16.5">
-      <c r="A47" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" s="12" customFormat="1" ht="16.5">
+      <c r="A47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="16.5">
       <c r="A48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="11">
+        <v>24</v>
+      </c>
+      <c r="G48" s="6">
         <v>45982</v>
       </c>
+      <c r="H48" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K48" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="12">
+      <c r="M48" s="6">
         <v>46006</v>
       </c>
-      <c r="O48" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="P48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O48" s="1"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="16.5">
       <c r="A49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="11">
+        <v>24</v>
+      </c>
+      <c r="G49" s="6">
         <v>45982</v>
       </c>
+      <c r="H49" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49" s="12">
+        <v>35</v>
+      </c>
+      <c r="J49" s="6">
         <v>45990</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="16.5">
+      <c r="A50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" s="5" customFormat="1" ht="16.5">
-      <c r="A50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="26">
+      <c r="D50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="14">
         <v>45982</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="27">
+      <c r="H50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="14">
         <v>45989</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="5"/>
+      <c r="K50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="4"/>
     </row>
     <row r="51" ht="16.5">
       <c r="A51" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>220</v>
+        <v>170</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="28">
+        <v>172</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="15">
         <v>45916</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="H51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" ht="16.5">
       <c r="A52" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="28">
+        <v>96</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="15">
         <v>45916</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="10"/>
+      <c r="H52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
     </row>
     <row r="53" ht="16.5">
       <c r="A53" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="28">
+        <v>175</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="15">
         <v>45916</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53" s="10"/>
+      <c r="H53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
     </row>
     <row r="54" ht="16.5">
       <c r="A54" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="28">
+        <v>177</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="15">
         <v>45916</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" s="10"/>
+      <c r="H54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
     </row>
     <row r="55" ht="16.5">
       <c r="A55" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="28">
+        <v>178</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="15">
         <v>45916</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55" s="10"/>
+      <c r="H55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
     </row>
     <row r="56" ht="16.5">
       <c r="A56" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="28">
+        <v>180</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="15">
         <v>45916</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56" s="10"/>
+      <c r="H56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" ht="16.5">
       <c r="A57" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="28">
+        <v>181</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="15">
         <v>45916</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57" s="10"/>
+      <c r="H57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J57" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B41"/>
-    <hyperlink r:id="rId1" ref="B42"/>
-    <hyperlink r:id="rId2" ref="B43"/>
-    <hyperlink r:id="rId3" ref="B45"/>
-    <hyperlink r:id="rId4" ref="B46"/>
-    <hyperlink r:id="rId5" ref="B47"/>
-    <hyperlink r:id="rId6" ref="B48"/>
-    <hyperlink r:id="rId7" ref="B49"/>
-    <hyperlink r:id="rId8" ref="B50"/>
-    <hyperlink r:id="rId9" ref="B51"/>
-  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
